--- a/rec/rec.xlsx
+++ b/rec/rec.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="6870" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Uрез=90В" sheetId="1" r:id="rId1"/>
-    <sheet name="Uрез=96В" sheetId="2" r:id="rId2"/>
-    <sheet name="Uрез=120В" sheetId="3" r:id="rId3"/>
-    <sheet name="Uотр=3В" sheetId="5" r:id="rId4"/>
-    <sheet name="Uотр=19.5В" sheetId="4" r:id="rId5"/>
-    <sheet name="Uотр=48В" sheetId="6" r:id="rId6"/>
-    <sheet name="Uрез=120В, Uотр=48В" sheetId="7" r:id="rId7"/>
-    <sheet name="Uрез=12В, Uотр=19.5В" sheetId="8" r:id="rId8"/>
-    <sheet name="Uрез=12В, Uотр=3В" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист1" sheetId="10" r:id="rId1"/>
+    <sheet name="Uрез=90В" sheetId="1" r:id="rId2"/>
+    <sheet name="Uрез=96В" sheetId="2" r:id="rId3"/>
+    <sheet name="Uрез=120В" sheetId="3" r:id="rId4"/>
+    <sheet name="Uотр=3В" sheetId="5" r:id="rId5"/>
+    <sheet name="Uотр=19.5В" sheetId="4" r:id="rId6"/>
+    <sheet name="Uотр=48В" sheetId="6" r:id="rId7"/>
+    <sheet name="Uрез=120В, Uотр=48В" sheetId="7" r:id="rId8"/>
+    <sheet name="Uрез=12В, Uотр=19.5В" sheetId="8" r:id="rId9"/>
+    <sheet name="Uрез=12В, Uотр=3В" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -539,7 +540,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1192,7 +1192,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1569,7 +1568,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13556,6 +13554,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13840,11 +13922,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -14090,7 +14172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -14351,12 +14433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14411,11 +14493,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" activeCellId="1" sqref="A2:A6 C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -14493,7 +14575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -14597,7 +14679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -14749,7 +14831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -14931,76 +15013,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/rec/rec.xlsx
+++ b/rec/rec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17640" windowHeight="6870" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Uрез=90В" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1192,7 +1191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1569,7 +1567,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2294,7 +2291,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3371,7 +3367,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3778,7 +3773,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13844,7 +13838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -14356,7 +14350,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14497,7 +14491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" activeCellId="1" sqref="A2:A8 C2:C8"/>
     </sheetView>
   </sheetViews>
